--- a/الگوریتم.xlsx
+++ b/الگوریتم.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajipour.ICTRC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasaman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yasaman</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>yasaman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+بیشترین عدد 1 هست که حقوق ساعتی کامل رو میگیره و بقیه به نسبت اون فرد سنجیده میشن و حقوق ساعتی افراد در واقع نسبتی از حقوق ساعتی فرد بهینه است. اینطوری هر فرد بر مبنای عملکرد بهینه ای که داره حقوق دربافت میکنه
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>05:15:39:07</t>
   </si>
@@ -38,24 +73,6 @@
     <t>08:11:04:09</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Sec</t>
-  </si>
-  <si>
-    <t>Work_Exact_By_Sec</t>
-  </si>
-  <si>
-    <t>Work_By_Hour</t>
-  </si>
-  <si>
     <t>Work_By_Hour_Round_Up</t>
   </si>
   <si>
@@ -68,20 +85,17 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Fixd_Salary</t>
-  </si>
-  <si>
-    <t>Merit Pay</t>
-  </si>
-  <si>
     <t>Call_Count</t>
+  </si>
+  <si>
+    <t>Pay per Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,9 +113,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,7 +188,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,219 +479,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2"/>
-    <col min="2" max="16384" width="15.85546875" style="1"/>
+    <col min="1" max="2" width="15.85546875" style="7"/>
+    <col min="3" max="3" width="15.85546875" style="2"/>
+    <col min="4" max="4" width="16.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000000</v>
-      </c>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>500000</v>
-      </c>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <f>VALUE(LEFT(A6,2))</f>
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <f>VALUE(MID(A6,4,2))</f>
-        <v>15</v>
-      </c>
       <c r="D6" s="1">
-        <f>VALUE(MID(A6,7,2))</f>
-        <v>39</v>
+        <f>ROUNDUP((VALUE(LEFT(C6,2))*24*60*60+VALUE(MID(C6,4,2))*60*60+VALUE(MID(C6,7,2))*60+VALUE(RIGHT(C6,2)))/3600,0)</f>
+        <v>136</v>
       </c>
       <c r="E6" s="1">
-        <f>VALUE(RIGHT(A6,2))</f>
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="F6" s="2">
-        <f xml:space="preserve"> VALUE(LEFT(A6,2))*24*60*60+VALUE(MID(A6,4,2))*60*60+VALUE(MID(A6,7,2))*60+VALUE(RIGHT(A6,2))</f>
-        <v>488347</v>
+        <f xml:space="preserve"> E6 / ROUNDUP((VALUE(LEFT(C6,2))*24*60*60+VALUE(MID(C6,4,2))*60*60+VALUE(MID(C6,7,2))*60+VALUE(RIGHT(C6,2)))/3600,0)</f>
+        <v>3.0661764705882355</v>
       </c>
       <c r="G6" s="1">
-        <f xml:space="preserve"> (VALUE(LEFT(A6,2))*24*60*60+VALUE(MID(A6,4,2))*60*60+VALUE(MID(A6,7,2))*60+VALUE(RIGHT(A6,2)))/3600</f>
-        <v>135.65194444444444</v>
-      </c>
-      <c r="H6" s="1">
-        <f>ROUNDUP((VALUE(LEFT(A6,2))*24*60*60+VALUE(MID(A6,4,2))*60*60+VALUE(MID(A6,7,2))*60+VALUE(RIGHT(A6,2)))/3600,0)</f>
-        <v>136</v>
-      </c>
-      <c r="I6" s="1">
-        <v>417</v>
-      </c>
-      <c r="J6" s="2">
-        <f xml:space="preserve"> I6 / ROUNDUP((VALUE(LEFT(A6,2))*24*60*60+VALUE(MID(A6,4,2))*60*60+VALUE(MID(A6,7,2))*60+VALUE(RIGHT(A6,2)))/3600,0)</f>
-        <v>3.0661764705882355</v>
-      </c>
-      <c r="K6" s="1">
-        <f xml:space="preserve"> (I6 / ROUNDUP((VALUE(LEFT(A6,2))*24*60*60+VALUE(MID(A6,4,2))*60*60+VALUE(MID(A6,7,2))*60+VALUE(RIGHT(A6,2)))/3600,0))/MAX(J:J)</f>
+        <f xml:space="preserve"> (E6 / ROUNDUP((VALUE(LEFT(C6,2))*24*60*60+VALUE(MID(C6,4,2))*60*60+VALUE(MID(C6,7,2))*60+VALUE(RIGHT(C6,2)))/3600,0))/MAX(F:F)</f>
         <v>0.93740977986286544</v>
       </c>
-      <c r="L6" s="6">
-        <f>G$2+K6*G$3</f>
-        <v>1468704.8899314327</v>
+      <c r="H6" s="6">
+        <f>D6*G6*A$6</f>
+        <v>1274877.3006134969</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="10"/>
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:B8" si="0">VALUE(LEFT(A7,2))</f>
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:C8" si="1">VALUE(MID(A7,4,2))</f>
-        <v>10</v>
-      </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D8" si="2">VALUE(MID(A7,7,2))</f>
-        <v>21</v>
+        <f>ROUNDUP((VALUE(LEFT(C7,2))*24*60*60+VALUE(MID(C7,4,2))*60*60+VALUE(MID(C7,7,2))*60+VALUE(RIGHT(C7,2)))/3600,0)</f>
+        <v>299</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E8" si="3">VALUE(RIGHT(A7,2))</f>
-        <v>2</v>
+        <v>978</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F8" si="4" xml:space="preserve"> VALUE(LEFT(A7,2))*24*60*60+VALUE(MID(A7,4,2))*60*60+VALUE(MID(A7,7,2))*60+VALUE(RIGHT(A7,2))</f>
-        <v>1074062</v>
+        <f xml:space="preserve"> E7 / ROUNDUP((VALUE(LEFT(C7,2))*24*60*60+VALUE(MID(C7,4,2))*60*60+VALUE(MID(C7,7,2))*60+VALUE(RIGHT(C7,2)))/3600,0)</f>
+        <v>3.2709030100334449</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G8" si="5" xml:space="preserve"> (VALUE(LEFT(A7,2))*24*60*60+VALUE(MID(A7,4,2))*60*60+VALUE(MID(A7,7,2))*60+VALUE(RIGHT(A7,2)))/3600</f>
-        <v>298.35055555555556</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7:H8" si="6">ROUNDUP((VALUE(LEFT(A7,2))*24*60*60+VALUE(MID(A7,4,2))*60*60+VALUE(MID(A7,7,2))*60+VALUE(RIGHT(A7,2)))/3600,0)</f>
-        <v>299</v>
-      </c>
-      <c r="I7" s="1">
-        <v>978</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J8" si="7" xml:space="preserve"> I7 / ROUNDUP((VALUE(LEFT(A7,2))*24*60*60+VALUE(MID(A7,4,2))*60*60+VALUE(MID(A7,7,2))*60+VALUE(RIGHT(A7,2)))/3600,0)</f>
-        <v>3.2709030100334449</v>
-      </c>
-      <c r="K7" s="1">
-        <f xml:space="preserve"> (I7 / ROUNDUP((VALUE(LEFT(A7,2))*24*60*60+VALUE(MID(A7,4,2))*60*60+VALUE(MID(A7,7,2))*60+VALUE(RIGHT(A7,2)))/3600,0))/MAX(J:J)</f>
+        <f xml:space="preserve"> (E7 / ROUNDUP((VALUE(LEFT(C7,2))*24*60*60+VALUE(MID(C7,4,2))*60*60+VALUE(MID(C7,7,2))*60+VALUE(RIGHT(C7,2)))/3600,0))/MAX(F:F)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="6">
-        <f t="shared" ref="L7:L8" si="8">G$2+K7*G$3</f>
-        <v>1500000</v>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H8" si="0">D7*G7*A$6</f>
+        <v>2990000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1">
+        <f>ROUNDUP((VALUE(LEFT(C8,2))*24*60*60+VALUE(MID(C8,4,2))*60*60+VALUE(MID(C8,7,2))*60+VALUE(RIGHT(C8,2)))/3600,0)</f>
+        <v>204</v>
+      </c>
+      <c r="E8" s="1">
+        <v>405</v>
+      </c>
+      <c r="F8" s="2">
+        <f xml:space="preserve"> E8 / ROUNDUP((VALUE(LEFT(C8,2))*24*60*60+VALUE(MID(C8,4,2))*60*60+VALUE(MID(C8,7,2))*60+VALUE(RIGHT(C8,2)))/3600,0)</f>
+        <v>1.9852941176470589</v>
+      </c>
+      <c r="G8" s="1">
+        <f xml:space="preserve"> (E8 / ROUNDUP((VALUE(LEFT(C8,2))*24*60*60+VALUE(MID(C8,4,2))*60*60+VALUE(MID(C8,7,2))*60+VALUE(RIGHT(C8,2)))/3600,0))/MAX(F:F)</f>
+        <v>0.60695597257307832</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="4"/>
-        <v>731049</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="5"/>
-        <v>203.06916666666666</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="6"/>
-        <v>204</v>
-      </c>
-      <c r="I8" s="1">
-        <v>405</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="7"/>
-        <v>1.9852941176470589</v>
-      </c>
-      <c r="K8" s="1">
-        <f xml:space="preserve"> (I8 / ROUNDUP((VALUE(LEFT(A8,2))*24*60*60+VALUE(MID(A8,4,2))*60*60+VALUE(MID(A8,7,2))*60+VALUE(RIGHT(A8,2)))/3600,0))/MAX(J:J)</f>
-        <v>0.60695597257307832</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="8"/>
-        <v>1303477.9862865391</v>
+        <v>1238190.1840490799</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>